--- a/NPTEL course-format_IT_Even sem_AY2022-2023.xlsx
+++ b/NPTEL course-format_IT_Even sem_AY2022-2023.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nithy_my2jqm\Desktop\Project\WebDev\dbms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AB2DDEC-A2DA-48C6-B7CE-24C754EAFE69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB3AC835-38A6-4E40-9499-55DFF0ADECAA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="533" uniqueCount="163">
   <si>
     <t>HOD</t>
   </si>
@@ -48,24 +48,6 @@
     <t>Dept. NPTEL Coordinator</t>
   </si>
   <si>
-    <t>SSN Marks (Max 100)</t>
-  </si>
-  <si>
-    <t>Actual NPTEL Marks</t>
-  </si>
-  <si>
-    <t>No of credits earned</t>
-  </si>
-  <si>
-    <t>NPTEL Course Title</t>
-  </si>
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Student Name</t>
-  </si>
-  <si>
     <t>NPTEL Courses - Mark List</t>
   </si>
   <si>
@@ -75,9 +57,6 @@
     <t>Sri Sivasubramaniya Nadar College of Engineering, Kalavakkam 603 110</t>
   </si>
   <si>
-    <t>Sub.Code(will be allotted by the CoE office)</t>
-  </si>
-  <si>
     <t>Even Semester - 2022 - 2023</t>
   </si>
   <si>
@@ -204,9 +183,6 @@
     <t>SEEMANTULA NAMRATHA</t>
   </si>
   <si>
-    <t xml:space="preserve">SEEMANTULA NAMRATHA </t>
-  </si>
-  <si>
     <t>SELVI PARASAKTHI K</t>
   </si>
   <si>
@@ -447,9 +423,6 @@
     <t>BOTWE RENUKA KAKASAHEB</t>
   </si>
   <si>
-    <t>I year PG</t>
-  </si>
-  <si>
     <t>RENISHA A</t>
   </si>
   <si>
@@ -459,9 +432,6 @@
     <t>SHALINI B</t>
   </si>
   <si>
-    <t xml:space="preserve">GETTING STARTED WITH COMPETITIVE PROGRAMMING </t>
-  </si>
-  <si>
     <t xml:space="preserve">PROGRAMMING IN JAVA </t>
   </si>
   <si>
@@ -501,33 +471,18 @@
     <t xml:space="preserve">INTRODUCTION TO SOFT COMPUTING </t>
   </si>
   <si>
-    <t>GETTING STARTED WITH COMPETITIVE PROGRAMMING</t>
-  </si>
-  <si>
-    <t>EHICAL HACKING</t>
-  </si>
-  <si>
     <t xml:space="preserve">ETHICAL HACKING </t>
   </si>
   <si>
     <t>PROGRAMMING IN MODERN C++</t>
   </si>
   <si>
-    <t xml:space="preserve">GETTING STARTED WITH COMPETITIVE PROGRAMMING	</t>
-  </si>
-  <si>
-    <t>Programming in java</t>
-  </si>
-  <si>
     <t>SYSTEMS AND USABLE SECURITY</t>
   </si>
   <si>
     <t>PROGRAMMING IN MODERN  C++</t>
   </si>
   <si>
-    <t>Programming In Modern C++</t>
-  </si>
-  <si>
     <t>DISCRETE STRUCTURES</t>
   </si>
   <si>
@@ -540,10 +495,40 @@
     <t>Date: 12 July 2023</t>
   </si>
   <si>
-    <t>REGISTER NUMBER</t>
-  </si>
-  <si>
-    <t>S.No</t>
+    <t>None</t>
+  </si>
+  <si>
+    <t>SNO</t>
+  </si>
+  <si>
+    <t>STUDENT_NAME</t>
+  </si>
+  <si>
+    <t>REGISTER_NUMBER</t>
+  </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>SUBCODE</t>
+  </si>
+  <si>
+    <t>COURSE_TITLE</t>
+  </si>
+  <si>
+    <t>CREDITS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SSN_MARKS </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> NPTEL_MARK</t>
+  </si>
+  <si>
+    <t>I Year PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> GETTING STARTED WITH COMPETITIVE PROGRAMMING </t>
   </si>
 </sst>
 </file>
@@ -991,23 +976,25 @@
   </sheetPr>
   <dimension ref="A1:I143"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="57" zoomScaleNormal="57" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView tabSelected="1" topLeftCell="D18" zoomScale="65" zoomScaleNormal="57" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="L20" sqref="L20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="31.26953125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.54296875" style="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.453125" customWidth="1"/>
+    <col min="4" max="4" width="13.26953125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="56.1796875" style="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="9" width="13.26953125" customWidth="1"/>
+    <col min="7" max="7" width="13.26953125" customWidth="1"/>
+    <col min="8" max="8" width="28.90625" customWidth="1"/>
+    <col min="9" max="9" width="36.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A1" s="18" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B1" s="18"/>
       <c r="C1" s="18"/>
@@ -1020,7 +1007,7 @@
     </row>
     <row r="2" spans="1:9" s="1" customFormat="1" ht="13" x14ac:dyDescent="0.3">
       <c r="A2" s="19" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B2" s="19"/>
       <c r="C2" s="19"/>
@@ -1033,7 +1020,7 @@
     </row>
     <row r="3" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A3" s="18" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
@@ -1046,7 +1033,7 @@
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A4" s="18" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="B4" s="18"/>
       <c r="C4" s="18"/>
@@ -1059,7 +1046,7 @@
     </row>
     <row r="5" spans="1:9" s="1" customFormat="1" ht="15.5" x14ac:dyDescent="0.35">
       <c r="A5" s="18" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
@@ -1078,7 +1065,7 @@
       <c r="E6" s="7"/>
       <c r="F6" s="8"/>
       <c r="G6" s="17" t="s">
-        <v>165</v>
+        <v>150</v>
       </c>
       <c r="H6" s="17"/>
       <c r="I6" s="17"/>
@@ -1094,33 +1081,33 @@
       <c r="H7" s="3"/>
       <c r="I7" s="3"/>
     </row>
-    <row r="8" spans="1:9" ht="62" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" ht="15.5" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>7</v>
+        <v>153</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>6</v>
+        <v>155</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>5</v>
+        <v>157</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>4</v>
+        <v>158</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>3</v>
+        <v>160</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>2</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
@@ -1131,14 +1118,16 @@
         <v>205002001</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="D9" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E9" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E9" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F9" s="15" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="G9" s="13">
         <v>3</v>
@@ -1159,14 +1148,16 @@
         <v>205002006</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E10" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E10" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F10" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G10" s="13">
         <v>3</v>
@@ -1187,14 +1178,16 @@
         <v>205002008</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E11" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E11" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F11" s="15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G11" s="13">
         <v>3</v>
@@ -1215,14 +1208,16 @@
         <v>205002009</v>
       </c>
       <c r="C12" s="15" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E12" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F12" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G12" s="13">
         <v>3</v>
@@ -1243,14 +1238,16 @@
         <v>205002011</v>
       </c>
       <c r="C13" s="15" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="D13" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F13" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G13" s="13">
         <v>3</v>
@@ -1271,14 +1268,16 @@
         <v>205002012</v>
       </c>
       <c r="C14" s="15" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D14" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E14" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F14" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G14" s="13">
         <v>3</v>
@@ -1299,14 +1298,16 @@
         <v>205002013</v>
       </c>
       <c r="C15" s="15" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D15" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E15" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E15" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F15" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G15" s="13">
         <v>3</v>
@@ -1327,14 +1328,16 @@
         <v>205002014</v>
       </c>
       <c r="C16" s="15" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E16" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E16" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F16" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G16" s="13">
         <v>3</v>
@@ -1355,14 +1358,16 @@
         <v>205002015</v>
       </c>
       <c r="C17" s="15" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D17" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E17" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E17" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F17" s="15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G17" s="13">
         <v>3</v>
@@ -1383,14 +1388,16 @@
         <v>205002016</v>
       </c>
       <c r="C18" s="15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D18" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E18" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E18" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F18" s="15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G18" s="13">
         <v>2</v>
@@ -1411,14 +1418,16 @@
         <v>205002016</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D19" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E19" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E19" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F19" s="15" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="G19" s="13">
         <v>1</v>
@@ -1439,14 +1448,16 @@
         <v>205002017</v>
       </c>
       <c r="C20" s="15" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E20" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F20" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G20" s="13">
         <v>3</v>
@@ -1467,14 +1478,16 @@
         <v>205002018</v>
       </c>
       <c r="C21" s="15" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="D21" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E21" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E21" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F21" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G21" s="13">
         <v>3</v>
@@ -1495,14 +1508,16 @@
         <v>205002021</v>
       </c>
       <c r="C22" s="15" t="s">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D22" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E22" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E22" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F22" s="15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G22" s="13">
         <v>3</v>
@@ -1523,14 +1538,16 @@
         <v>205002025</v>
       </c>
       <c r="C23" s="15" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="D23" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E23" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F23" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G23" s="13">
         <v>3</v>
@@ -1551,14 +1568,16 @@
         <v>205002026</v>
       </c>
       <c r="C24" s="15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E24" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E24" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F24" s="15" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G24" s="13">
         <v>3</v>
@@ -1579,14 +1598,16 @@
         <v>205002026</v>
       </c>
       <c r="C25" s="15" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="D25" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E25" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E25" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F25" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G25" s="13">
         <v>3</v>
@@ -1607,14 +1628,16 @@
         <v>205002031</v>
       </c>
       <c r="C26" s="15" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="D26" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E26" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E26" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F26" s="15" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G26" s="13">
         <v>3</v>
@@ -1635,14 +1658,16 @@
         <v>205002033</v>
       </c>
       <c r="C27" s="15" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D27" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E27" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E27" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F27" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G27" s="13">
         <v>3</v>
@@ -1663,14 +1688,16 @@
         <v>205002034</v>
       </c>
       <c r="C28" s="15" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D28" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E28" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E28" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F28" s="15" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="G28" s="13">
         <v>3</v>
@@ -1691,14 +1718,16 @@
         <v>205002035</v>
       </c>
       <c r="C29" s="15" t="s">
-        <v>32</v>
+        <v>25</v>
       </c>
       <c r="D29" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E29" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E29" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F29" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G29" s="13">
         <v>3</v>
@@ -1719,14 +1748,16 @@
         <v>205002038</v>
       </c>
       <c r="C30" s="15" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="D30" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E30" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E30" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F30" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G30" s="13">
         <v>3</v>
@@ -1747,14 +1778,16 @@
         <v>205002040</v>
       </c>
       <c r="C31" s="15" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="D31" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E31" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E31" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F31" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G31" s="13">
         <v>3</v>
@@ -1775,14 +1808,16 @@
         <v>205002042</v>
       </c>
       <c r="C32" s="15" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D32" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E32" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E32" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F32" s="15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G32" s="13">
         <v>3</v>
@@ -1803,14 +1838,16 @@
         <v>205002043</v>
       </c>
       <c r="C33" s="15" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E33" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E33" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F33" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G33" s="13">
         <v>3</v>
@@ -1831,14 +1868,16 @@
         <v>205002046</v>
       </c>
       <c r="C34" s="15" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="D34" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E34" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E34" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F34" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G34" s="13">
         <v>3</v>
@@ -1859,14 +1898,16 @@
         <v>205002047</v>
       </c>
       <c r="C35" s="15" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D35" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E35" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F35" s="15" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G35" s="13">
         <v>3</v>
@@ -1887,14 +1928,16 @@
         <v>205002048</v>
       </c>
       <c r="C36" s="15" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="D36" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E36" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E36" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F36" s="15" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G36" s="13">
         <v>3</v>
@@ -1915,14 +1958,16 @@
         <v>205002049</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D37" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E37" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E37" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F37" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G37" s="13">
         <v>3</v>
@@ -1943,14 +1988,16 @@
         <v>205002050</v>
       </c>
       <c r="C38" s="15" t="s">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="D38" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E38" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E38" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F38" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G38" s="13">
         <v>3</v>
@@ -1971,14 +2018,16 @@
         <v>205002054</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E39" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E39" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F39" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G39" s="13">
         <v>3</v>
@@ -1999,14 +2048,16 @@
         <v>205002055</v>
       </c>
       <c r="C40" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="D40" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E40" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E40" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F40" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G40" s="13">
         <v>3</v>
@@ -2027,14 +2078,16 @@
         <v>205002056</v>
       </c>
       <c r="C41" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D41" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E41" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E41" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F41" s="15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G41" s="13">
         <v>3</v>
@@ -2055,14 +2108,16 @@
         <v>205002056</v>
       </c>
       <c r="C42" s="15" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E42" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E42" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F42" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G42" s="13">
         <v>3</v>
@@ -2083,14 +2138,16 @@
         <v>205002058</v>
       </c>
       <c r="C43" s="15" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E43" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E43" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F43" s="15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G43" s="13">
         <v>3</v>
@@ -2111,14 +2168,16 @@
         <v>205002059</v>
       </c>
       <c r="C44" s="15" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D44" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E44" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E44" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F44" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G44" s="13">
         <v>3</v>
@@ -2139,14 +2198,16 @@
         <v>205002061</v>
       </c>
       <c r="C45" s="15" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E45" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F45" s="15" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="G45" s="13">
         <v>3</v>
@@ -2167,14 +2228,16 @@
         <v>205002062</v>
       </c>
       <c r="C46" s="15" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E46" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E46" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F46" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G46" s="13">
         <v>3</v>
@@ -2195,14 +2258,16 @@
         <v>205002067</v>
       </c>
       <c r="C47" s="15" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E47" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E47" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F47" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G47" s="13">
         <v>3</v>
@@ -2223,14 +2288,16 @@
         <v>205002072</v>
       </c>
       <c r="C48" s="15" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E48" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E48" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F48" s="15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G48" s="13">
         <v>3</v>
@@ -2251,14 +2318,16 @@
         <v>205002073</v>
       </c>
       <c r="C49" s="15" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="D49" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E49" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E49" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F49" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G49" s="13">
         <v>3</v>
@@ -2279,14 +2348,16 @@
         <v>205002078</v>
       </c>
       <c r="C50" s="15" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E50" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E50" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F50" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G50" s="13">
         <v>3</v>
@@ -2307,14 +2378,16 @@
         <v>205002084</v>
       </c>
       <c r="C51" s="15" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E51" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F51" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G51" s="13">
         <v>3</v>
@@ -2335,14 +2408,16 @@
         <v>205002084</v>
       </c>
       <c r="C52" s="15" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E52" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E52" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F52" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G52" s="13">
         <v>3</v>
@@ -2363,14 +2438,16 @@
         <v>205002085</v>
       </c>
       <c r="C53" s="15" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D53" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E53" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E53" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F53" s="15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G53" s="13">
         <v>3</v>
@@ -2391,14 +2468,16 @@
         <v>205002087</v>
       </c>
       <c r="C54" s="15" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E54" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E54" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F54" s="15" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="G54" s="13">
         <v>3</v>
@@ -2419,14 +2498,16 @@
         <v>205002088</v>
       </c>
       <c r="C55" s="15" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="D55" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E55" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F55" s="15" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="G55" s="13">
         <v>3</v>
@@ -2447,14 +2528,16 @@
         <v>205002091</v>
       </c>
       <c r="C56" s="15" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D56" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E56" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E56" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F56" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G56" s="13">
         <v>3</v>
@@ -2475,14 +2558,16 @@
         <v>205002093</v>
       </c>
       <c r="C57" s="15" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="D57" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E57" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E57" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F57" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G57" s="13">
         <v>3</v>
@@ -2503,14 +2588,16 @@
         <v>205002096</v>
       </c>
       <c r="C58" s="15" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="D58" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E58" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F58" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G58" s="13">
         <v>3</v>
@@ -2531,14 +2618,16 @@
         <v>205002097</v>
       </c>
       <c r="C59" s="15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D59" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E59" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E59" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F59" s="15" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
       <c r="G59" s="13">
         <v>2</v>
@@ -2559,14 +2648,16 @@
         <v>205002097</v>
       </c>
       <c r="C60" s="15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D60" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E60" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F60" s="15" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
       <c r="G60" s="13">
         <v>3</v>
@@ -2587,14 +2678,16 @@
         <v>205002097</v>
       </c>
       <c r="C61" s="15" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E61" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E61" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F61" s="15" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="G61" s="13">
         <v>3</v>
@@ -2615,14 +2708,16 @@
         <v>205002098</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D62" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E62" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E62" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F62" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G62" s="13">
         <v>3</v>
@@ -2643,14 +2738,16 @@
         <v>205002103</v>
       </c>
       <c r="C63" s="15" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="D63" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E63" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E63" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F63" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G63" s="13">
         <v>3</v>
@@ -2671,14 +2768,16 @@
         <v>205002106</v>
       </c>
       <c r="C64" s="15" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E64" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E64" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F64" s="15" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="G64" s="13">
         <v>2</v>
@@ -2699,14 +2798,16 @@
         <v>205002107</v>
       </c>
       <c r="C65" s="15" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="D65" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E65" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E65" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F65" s="15" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G65" s="13">
         <v>3</v>
@@ -2727,14 +2828,16 @@
         <v>205002108</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D66" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E66" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F66" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G66" s="13">
         <v>3</v>
@@ -2755,14 +2858,16 @@
         <v>205002111</v>
       </c>
       <c r="C67" s="15" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
       <c r="D67" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E67" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F67" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G67" s="13">
         <v>3</v>
@@ -2783,14 +2888,16 @@
         <v>205002114</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
       <c r="D68" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E68" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E68" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F68" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G68" s="13">
         <v>3</v>
@@ -2811,14 +2918,16 @@
         <v>205002115</v>
       </c>
       <c r="C69" s="15" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E69" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E69" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F69" s="15" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="G69" s="13">
         <v>3</v>
@@ -2839,14 +2948,16 @@
         <v>205002117</v>
       </c>
       <c r="C70" s="15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D70" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E70" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E70" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F70" s="15" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="G70" s="13">
         <v>3</v>
@@ -2867,14 +2978,16 @@
         <v>205002117</v>
       </c>
       <c r="C71" s="15" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E71" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E71" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F71" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G71" s="13">
         <v>3</v>
@@ -2895,14 +3008,16 @@
         <v>205002121</v>
       </c>
       <c r="C72" s="15" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="D72" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E72" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E72" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F72" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G72" s="13">
         <v>3</v>
@@ -2923,14 +3038,16 @@
         <v>205002123</v>
       </c>
       <c r="C73" s="15" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E73" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E73" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F73" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G73" s="13">
         <v>3</v>
@@ -2951,14 +3068,16 @@
         <v>205002124</v>
       </c>
       <c r="C74" s="15" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
       <c r="D74" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E74" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E74" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F74" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G74" s="13">
         <v>3</v>
@@ -2979,14 +3098,16 @@
         <v>205002125</v>
       </c>
       <c r="C75" s="15" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E75" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E75" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F75" s="15" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
       <c r="G75" s="13">
         <v>3</v>
@@ -3007,14 +3128,16 @@
         <v>205002301</v>
       </c>
       <c r="C76" s="15" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E76" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E76" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F76" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G76" s="13">
         <v>3</v>
@@ -3035,14 +3158,16 @@
         <v>205002303</v>
       </c>
       <c r="C77" s="15" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>14</v>
-      </c>
-      <c r="E77" s="13"/>
+        <v>7</v>
+      </c>
+      <c r="E77" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F77" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G77" s="13">
         <v>3</v>
@@ -3063,14 +3188,16 @@
         <v>3122215002003</v>
       </c>
       <c r="C78" s="15" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="D78" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E78" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E78" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F78" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G78" s="13">
         <v>3</v>
@@ -3091,14 +3218,16 @@
         <v>3122215002007</v>
       </c>
       <c r="C79" s="15" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E79" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E79" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F79" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G79" s="13">
         <v>3</v>
@@ -3119,14 +3248,16 @@
         <v>3122215002009</v>
       </c>
       <c r="C80" s="15" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E80" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E80" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F80" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G80" s="13">
         <v>3</v>
@@ -3147,14 +3278,16 @@
         <v>3122215002011</v>
       </c>
       <c r="C81" s="15" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E81" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E81" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F81" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G81" s="13">
         <v>3</v>
@@ -3175,14 +3308,16 @@
         <v>3122215002017</v>
       </c>
       <c r="C82" s="15" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="D82" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E82" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E82" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F82" s="15" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="G82" s="13">
         <v>3</v>
@@ -3203,14 +3338,16 @@
         <v>3122215002019</v>
       </c>
       <c r="C83" s="15" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="D83" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E83" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E83" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F83" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G83" s="13">
         <v>3</v>
@@ -3231,14 +3368,16 @@
         <v>3122215002021</v>
       </c>
       <c r="C84" s="15" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="D84" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E84" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E84" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F84" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G84" s="13">
         <v>3</v>
@@ -3259,14 +3398,16 @@
         <v>3122215002022</v>
       </c>
       <c r="C85" s="15" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E85" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E85" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F85" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G85" s="13">
         <v>3</v>
@@ -3287,14 +3428,16 @@
         <v>3122215002023</v>
       </c>
       <c r="C86" s="15" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="D86" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E86" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E86" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F86" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G86" s="13">
         <v>3</v>
@@ -3315,14 +3458,16 @@
         <v>3122215002024</v>
       </c>
       <c r="C87" s="15" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E87" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E87" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F87" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G87" s="13">
         <v>3</v>
@@ -3343,14 +3488,16 @@
         <v>3122215002025</v>
       </c>
       <c r="C88" s="15" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E88" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E88" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F88" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G88" s="13">
         <v>3</v>
@@ -3371,14 +3518,16 @@
         <v>3122215002026</v>
       </c>
       <c r="C89" s="15" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="D89" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E89" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E89" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F89" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G89" s="13">
         <v>3</v>
@@ -3399,14 +3548,16 @@
         <v>3122215002027</v>
       </c>
       <c r="C90" s="15" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E90" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E90" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F90" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G90" s="13">
         <v>3</v>
@@ -3427,14 +3578,16 @@
         <v>3122215002029</v>
       </c>
       <c r="C91" s="15" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="D91" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E91" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E91" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F91" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G91" s="13">
         <v>3</v>
@@ -3455,14 +3608,16 @@
         <v>3122215002031</v>
       </c>
       <c r="C92" s="15" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="D92" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E92" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E92" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F92" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G92" s="13">
         <v>3</v>
@@ -3483,14 +3638,16 @@
         <v>3122215002033</v>
       </c>
       <c r="C93" s="15" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="D93" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E93" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E93" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F93" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G93" s="13">
         <v>3</v>
@@ -3511,14 +3668,16 @@
         <v>3122215002034</v>
       </c>
       <c r="C94" s="15" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="D94" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E94" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E94" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F94" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G94" s="13">
         <v>3</v>
@@ -3539,14 +3698,16 @@
         <v>3122215002035</v>
       </c>
       <c r="C95" s="15" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="D95" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E95" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E95" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F95" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G95" s="13">
         <v>3</v>
@@ -3567,14 +3728,16 @@
         <v>3122215002036</v>
       </c>
       <c r="C96" s="15" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D96" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E96" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E96" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F96" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G96" s="13">
         <v>3</v>
@@ -3595,14 +3758,16 @@
         <v>3122215002037</v>
       </c>
       <c r="C97" s="15" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E97" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E97" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F97" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G97" s="13">
         <v>3</v>
@@ -3623,14 +3788,16 @@
         <v>3122215002038</v>
       </c>
       <c r="C98" s="15" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E98" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E98" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F98" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G98" s="13">
         <v>3</v>
@@ -3651,14 +3818,16 @@
         <v>3122215002039</v>
       </c>
       <c r="C99" s="15" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D99" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E99" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E99" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F99" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G99" s="13">
         <v>3</v>
@@ -3679,14 +3848,16 @@
         <v>3122215002042</v>
       </c>
       <c r="C100" s="15" t="s">
-        <v>100</v>
+        <v>92</v>
       </c>
       <c r="D100" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E100" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E100" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F100" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G100" s="13">
         <v>3</v>
@@ -3707,14 +3878,16 @@
         <v>3122215002044</v>
       </c>
       <c r="C101" s="15" t="s">
-        <v>101</v>
+        <v>93</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E101" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E101" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F101" s="15" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G101" s="13">
         <v>3</v>
@@ -3735,14 +3908,16 @@
         <v>3122215002045</v>
       </c>
       <c r="C102" s="15" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="D102" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E102" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E102" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F102" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G102" s="13">
         <v>3</v>
@@ -3763,14 +3938,16 @@
         <v>3122215002048</v>
       </c>
       <c r="C103" s="15" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="D103" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E103" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E103" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F103" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G103" s="13">
         <v>3</v>
@@ -3791,14 +3968,16 @@
         <v>3122215002050</v>
       </c>
       <c r="C104" s="15" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="D104" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E104" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E104" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F104" s="15" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="G104" s="13">
         <v>3</v>
@@ -3819,14 +3998,16 @@
         <v>3122215002051</v>
       </c>
       <c r="C105" s="15" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="D105" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E105" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E105" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F105" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G105" s="13">
         <v>3</v>
@@ -3847,14 +4028,16 @@
         <v>3122215002059</v>
       </c>
       <c r="C106" s="15" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="D106" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E106" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E106" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F106" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G106" s="13">
         <v>3</v>
@@ -3875,14 +4058,16 @@
         <v>3122215002061</v>
       </c>
       <c r="C107" s="15" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="D107" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E107" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E107" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F107" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G107" s="13">
         <v>3</v>
@@ -3903,14 +4088,16 @@
         <v>3122215002062</v>
       </c>
       <c r="C108" s="15" t="s">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E108" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E108" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F108" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G108" s="13">
         <v>3</v>
@@ -3931,14 +4118,16 @@
         <v>3122215002063</v>
       </c>
       <c r="C109" s="15" t="s">
-        <v>109</v>
+        <v>101</v>
       </c>
       <c r="D109" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E109" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E109" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F109" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G109" s="13">
         <v>3</v>
@@ -3959,14 +4148,16 @@
         <v>3122215002064</v>
       </c>
       <c r="C110" s="15" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="D110" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E110" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E110" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F110" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G110" s="13">
         <v>3</v>
@@ -3987,14 +4178,16 @@
         <v>3122215002065</v>
       </c>
       <c r="C111" s="15" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D111" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E111" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E111" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F111" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G111" s="13">
         <v>3</v>
@@ -4015,14 +4208,16 @@
         <v>3122215002066</v>
       </c>
       <c r="C112" s="15" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D112" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E112" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E112" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F112" s="15" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="G112" s="13">
         <v>3</v>
@@ -4043,14 +4238,16 @@
         <v>3122215002067</v>
       </c>
       <c r="C113" s="15" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="D113" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E113" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E113" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F113" s="15" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="G113" s="13">
         <v>3</v>
@@ -4071,14 +4268,16 @@
         <v>3122215002071</v>
       </c>
       <c r="C114" s="15" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="D114" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E114" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E114" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F114" s="15" t="s">
-        <v>159</v>
+        <v>145</v>
       </c>
       <c r="G114" s="13">
         <v>1</v>
@@ -4099,14 +4298,16 @@
         <v>3122215002074</v>
       </c>
       <c r="C115" s="15" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="D115" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E115" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E115" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F115" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G115" s="13">
         <v>3</v>
@@ -4127,14 +4328,16 @@
         <v>3122215002075</v>
       </c>
       <c r="C116" s="15" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="D116" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E116" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E116" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F116" s="15" t="s">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="G116" s="13">
         <v>3</v>
@@ -4155,14 +4358,16 @@
         <v>3122215002082</v>
       </c>
       <c r="C117" s="15" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D117" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E117" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E117" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F117" s="15" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G117" s="13">
         <v>3</v>
@@ -4183,14 +4388,16 @@
         <v>3122215002088</v>
       </c>
       <c r="C118" s="15" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="D118" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E118" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E118" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F118" s="15" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="G118" s="13">
         <v>3</v>
@@ -4211,14 +4418,16 @@
         <v>3122215002090</v>
       </c>
       <c r="C119" s="15" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
       <c r="D119" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E119" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E119" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F119" s="15" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="G119" s="13">
         <v>3</v>
@@ -4239,14 +4448,16 @@
         <v>3122215002092</v>
       </c>
       <c r="C120" s="15" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D120" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E120" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E120" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F120" s="15" t="s">
-        <v>145</v>
+        <v>130</v>
       </c>
       <c r="G120" s="13">
         <v>3</v>
@@ -4267,14 +4478,16 @@
         <v>3122215002095</v>
       </c>
       <c r="C121" s="15" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
       <c r="D121" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E121" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E121" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F121" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G121" s="13">
         <v>3</v>
@@ -4295,14 +4508,16 @@
         <v>3122215002096</v>
       </c>
       <c r="C122" s="15" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="D122" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E122" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E122" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F122" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G122" s="13">
         <v>3</v>
@@ -4323,14 +4538,16 @@
         <v>3122215002104</v>
       </c>
       <c r="C123" s="15" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
       <c r="D123" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E123" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F123" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G123" s="13">
         <v>3</v>
@@ -4351,14 +4568,16 @@
         <v>3122215002107</v>
       </c>
       <c r="C124" s="15" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="D124" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E124" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E124" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F124" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G124" s="13">
         <v>3</v>
@@ -4379,14 +4598,16 @@
         <v>3122215002109</v>
       </c>
       <c r="C125" s="15" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
       <c r="D125" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E125" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E125" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F125" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G125" s="13">
         <v>3</v>
@@ -4407,14 +4628,16 @@
         <v>3122215002110</v>
       </c>
       <c r="C126" s="15" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
       <c r="D126" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E126" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E126" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F126" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G126" s="13">
         <v>3</v>
@@ -4435,14 +4658,16 @@
         <v>3122215002113</v>
       </c>
       <c r="C127" s="15" t="s">
-        <v>127</v>
+        <v>119</v>
       </c>
       <c r="D127" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E127" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E127" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F127" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G127" s="13">
         <v>3</v>
@@ -4463,14 +4688,16 @@
         <v>3122215002114</v>
       </c>
       <c r="C128" s="15" t="s">
-        <v>128</v>
+        <v>120</v>
       </c>
       <c r="D128" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E128" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E128" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F128" s="15" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="G128" s="13">
         <v>3</v>
@@ -4483,7 +4710,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:9" ht="38.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="13">
         <v>121</v>
       </c>
@@ -4491,14 +4718,16 @@
         <v>3122215002116</v>
       </c>
       <c r="C129" s="15" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="D129" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E129" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E129" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F129" s="15" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="G129" s="13">
         <v>3</v>
@@ -4519,14 +4748,16 @@
         <v>3122215002117</v>
       </c>
       <c r="C130" s="15" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="D130" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E130" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E130" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F130" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G130" s="13">
         <v>3</v>
@@ -4547,14 +4778,16 @@
         <v>3122215002119</v>
       </c>
       <c r="C131" s="15" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D131" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E131" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E131" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F131" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G131" s="13">
         <v>3</v>
@@ -4575,14 +4808,16 @@
         <v>3122215002129</v>
       </c>
       <c r="C132" s="15" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="D132" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E132" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E132" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F132" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G132" s="13">
         <v>3</v>
@@ -4603,14 +4838,16 @@
         <v>3122215002303</v>
       </c>
       <c r="C133" s="15" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="D133" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="E133" s="13"/>
+        <v>70</v>
+      </c>
+      <c r="E133" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F133" s="15" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G133" s="13">
         <v>3</v>
@@ -4631,14 +4868,16 @@
         <v>3122226002001</v>
       </c>
       <c r="C134" s="15" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D134" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E134" s="13"/>
+        <v>161</v>
+      </c>
+      <c r="E134" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F134" s="15" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="G134" s="13">
         <v>2</v>
@@ -4659,14 +4898,16 @@
         <v>3122226002002</v>
       </c>
       <c r="C135" s="15" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="D135" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E135" s="13"/>
+        <v>161</v>
+      </c>
+      <c r="E135" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F135" s="15" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="G135" s="13">
         <v>2</v>
@@ -4687,14 +4928,16 @@
         <v>3122226002003</v>
       </c>
       <c r="C136" s="15" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D136" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E136" s="13"/>
+        <v>161</v>
+      </c>
+      <c r="E136" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F136" s="15" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="G136" s="13">
         <v>2</v>
@@ -4715,14 +4958,16 @@
         <v>3122226002004</v>
       </c>
       <c r="C137" s="15" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
       <c r="D137" s="13" t="s">
-        <v>135</v>
-      </c>
-      <c r="E137" s="13"/>
+        <v>161</v>
+      </c>
+      <c r="E137" s="13" t="s">
+        <v>151</v>
+      </c>
       <c r="F137" s="15" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="G137" s="13">
         <v>2</v>
